--- a/document/SWP391-Group2-Weekly Report.xlsx
+++ b/document/SWP391-Group2-Weekly Report.xlsx
@@ -3,14 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAC011E-99C7-4E51-9B7A-F63D6C1978E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E9EBD-F337-4BC9-8E9D-D1CD8EE15B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WR1" sheetId="1" r:id="rId1"/>
+    <sheet name="WR2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,8 +89,70 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{51418432-4FD1-4755-BF53-E92EFA7DD1F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{DF9F381D-1F67-4CBC-BDDB-A4DF9E7D8D37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -260,13 +335,136 @@
   </si>
   <si>
     <t xml:space="preserve">Format again SRS, SDS </t>
+  </si>
+  <si>
+    <t>&lt;18/04/2022-22/04/2022&gt;</t>
+  </si>
+  <si>
+    <t>Categories Management</t>
+  </si>
+  <si>
+    <t>Promotion Code Management</t>
+  </si>
+  <si>
+    <t>FAQ list</t>
+  </si>
+  <si>
+    <t>FAQ detail</t>
+  </si>
+  <si>
+    <t>Cart Completion (Checkout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>Notifications Management</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Auto send email</t>
+  </si>
+  <si>
+    <t>Order history</t>
+  </si>
+  <si>
+    <t>Order history detail</t>
+  </si>
+  <si>
+    <t>User Authorization</t>
+  </si>
+  <si>
+    <t>Email Management</t>
+  </si>
+  <si>
+    <t>Notification list</t>
+  </si>
+  <si>
+    <t>Notification detail</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>29/04/2022</t>
+  </si>
+  <si>
+    <t>29/04/2023</t>
+  </si>
+  <si>
+    <t>29/04/2024</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>29/04/2026</t>
+  </si>
+  <si>
+    <t>29/04/2027</t>
+  </si>
+  <si>
+    <t>29/04/2028</t>
+  </si>
+  <si>
+    <t>29/04/2029</t>
+  </si>
+  <si>
+    <t>29/04/2030</t>
+  </si>
+  <si>
+    <t>29/04/2031</t>
+  </si>
+  <si>
+    <t>29/04/2032</t>
+  </si>
+  <si>
+    <t>29/04/2033</t>
+  </si>
+  <si>
+    <t>29/04/2034</t>
+  </si>
+  <si>
+    <t>29/04/2035</t>
+  </si>
+  <si>
+    <t>29/04/2036</t>
+  </si>
+  <si>
+    <t>29/04/2037</t>
+  </si>
+  <si>
+    <t>Format Controller name</t>
+  </si>
+  <si>
+    <t>Coding Iter 1, 2</t>
+  </si>
+  <si>
+    <t>Design DAR model</t>
+  </si>
+  <si>
+    <t>Complete SRS</t>
+  </si>
+  <si>
+    <t>Modify database</t>
+  </si>
+  <si>
+    <t>Manager Dropbox drive</t>
+  </si>
+  <si>
+    <t>Training DAR model</t>
+  </si>
+  <si>
+    <t>Trainer DAR model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +537,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -383,7 +588,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +623,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -761,9 +999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,4 +1568,591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA835892-8708-48D3-89A5-A2D061EE9A9C}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>2</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>3</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>4</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>5</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>6</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>7</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>8</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>9</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>10</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>11</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>12</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>13</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>14</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>15</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>16</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C32 C6:C16" xr:uid="{E0C8643A-246D-43C3-A5AA-7E0CE1F48B1B}">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/SWP391-Group2-Weekly Report.xlsx
+++ b/document/SWP391-Group2-Weekly Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7E9EBD-F337-4BC9-8E9D-D1CD8EE15B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C35D64-A9FC-4040-A058-2D3C719C29D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -388,54 +388,6 @@
     <t>Order Management</t>
   </si>
   <si>
-    <t>29/04/2022</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>29/04/2024</t>
-  </si>
-  <si>
-    <t>29/04/2025</t>
-  </si>
-  <si>
-    <t>29/04/2026</t>
-  </si>
-  <si>
-    <t>29/04/2027</t>
-  </si>
-  <si>
-    <t>29/04/2028</t>
-  </si>
-  <si>
-    <t>29/04/2029</t>
-  </si>
-  <si>
-    <t>29/04/2030</t>
-  </si>
-  <si>
-    <t>29/04/2031</t>
-  </si>
-  <si>
-    <t>29/04/2032</t>
-  </si>
-  <si>
-    <t>29/04/2033</t>
-  </si>
-  <si>
-    <t>29/04/2034</t>
-  </si>
-  <si>
-    <t>29/04/2035</t>
-  </si>
-  <si>
-    <t>29/04/2036</t>
-  </si>
-  <si>
-    <t>29/04/2037</t>
-  </si>
-  <si>
     <t>Format Controller name</t>
   </si>
   <si>
@@ -458,6 +410,60 @@
   </si>
   <si>
     <t>Trainer DAR model</t>
+  </si>
+  <si>
+    <t>Test report</t>
+  </si>
+  <si>
+    <t>Design Usecase diagram</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>28/04/2024</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2026</t>
+  </si>
+  <si>
+    <t>28/04/2027</t>
+  </si>
+  <si>
+    <t>28/04/2028</t>
+  </si>
+  <si>
+    <t>28/04/2029</t>
+  </si>
+  <si>
+    <t>28/04/2030</t>
+  </si>
+  <si>
+    <t>28/04/2031</t>
+  </si>
+  <si>
+    <t>28/04/2032</t>
+  </si>
+  <si>
+    <t>28/04/2033</t>
+  </si>
+  <si>
+    <t>28/04/2034</t>
+  </si>
+  <si>
+    <t>28/04/2035</t>
+  </si>
+  <si>
+    <t>28/04/2036</t>
+  </si>
+  <si>
+    <t>28/04/2037</t>
   </si>
 </sst>
 </file>
@@ -1574,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA835892-8708-48D3-89A5-A2D061EE9A9C}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>40</v>
@@ -1652,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>40</v>
@@ -1664,17 +1670,23 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>37</v>
@@ -1764,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>36</v>
@@ -1776,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>48</v>
@@ -1784,9 +1796,15 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="9">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>40</v>
@@ -1852,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -1903,7 +1921,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -1915,7 +1933,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -1927,7 +1945,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -1939,7 +1957,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D39" s="9"/>
     </row>
@@ -1951,7 +1969,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D40" s="9"/>
     </row>
@@ -1963,7 +1981,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -1975,7 +1993,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D42" s="9"/>
     </row>
@@ -1987,7 +2005,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -1999,7 +2017,7 @@
         <v>70</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -2011,7 +2029,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -2023,7 +2041,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D46" s="9"/>
     </row>
@@ -2035,7 +2053,7 @@
         <v>73</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D47" s="9"/>
     </row>
@@ -2047,7 +2065,7 @@
         <v>74</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -2059,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D49" s="9"/>
     </row>
@@ -2071,7 +2089,7 @@
         <v>76</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D50" s="9"/>
     </row>
@@ -2083,7 +2101,7 @@
         <v>77</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D51" s="9"/>
     </row>
